--- a/Lab/Table/LabConverstion.xlsx
+++ b/Lab/Table/LabConverstion.xlsx
@@ -396,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63BEDB6-3AE7-4504-8A55-66D02C9CD51C}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
